--- a/reddit_posts.xlsx
+++ b/reddit_posts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,28 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0C4DE"/>
+        <bgColor rgb="00B0C4DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +61,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,8 +443,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="2286" customWidth="1" min="2" max="2"/>
+    <col width="110" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -437,6 +460,787 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KosukeSukeP</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post 3|-- I made some Pokémon inspired headgears! [OC]:
+</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/gallery/1ha7vmz</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HospitalLazy1880</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Comment 39 |-- Monster hunter in pokemon.</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha7vmz/i_made_some_pokémon_inspired_headgears_oc/m17igf4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TheCoolBlondeGirl</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post 4|-- The resemblance is uncanny :
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/w6e6an7wtt5e1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AutoModerator</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Comment 4 |-- Thank you for posting to r/pokemon! It looks like this post has not been claimed as Original Content (OC).  - If this is **your own work**, please reply to this comment with `[OC]` or `I made this`. You can also toggle the `oc` flag on your post.  A reminder that \/r/pokemon requires all creative work to be OC, in order to protect creators. If this is ***not*** **your own work**, please delete your post per [Rule 5](/r/pokemon/wiki/rules#wiki_5._original_content_.28oc.29_only). Thank you!  ***  *I am a bot, and may not detect all forms of OC claims. If you've already made it clear that this is your work, please ignore this comment.*  *I am a bot, and this action was performed automatically. Please [contact the moderators of this subreddit](/message/compose/?to=/r/pokemon) if you have any questions or concerns.*</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha9yhh/the_resemblance_is_uncanny/m16wln5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>chahanhancha</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Post 5|-- [OC] who is that pokemon:
+it's &gt;shroomish&lt; ! maybe too easy..?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/gallery/1ha5wzw</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ChargedCoin</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Post 6|-- My country’s Mister Donut had a Pokemon Collab! I can’t take how cute Pikachu looks!! ⚡️🤩:
+This is in Singapore!</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/gallery/1ha6zne</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Oliver_Bohovic_Music</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post 8|-- FIMO Polymer Clay Pokémon Figures:
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/gallery/1ha692v</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AutoModerator</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Comment 5 |-- Thank you for posting to r/pokemon! It looks like this post has not been claimed as Original Content (OC).  - If this is **your own work**, please reply to this comment with `[OC]` or `I made this`. You can also toggle the `oc` flag on your post.  A reminder that \/r/pokemon requires all creative work to be OC, in order to protect creators. If this is ***not*** **your own work**, please delete your post per [Rule 5](/r/pokemon/wiki/rules#wiki_5._original_content_.28oc.29_only). Thank you!  ***  *I am a bot, and may not detect all forms of OC claims. If you've already made it clear that this is your work, please ignore this comment.*  *I am a bot, and this action was performed automatically. Please [contact the moderators of this subreddit](/message/compose/?to=/r/pokemon) if you have any questions or concerns.*</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha692v/fimo_polymer_clay_pokémon_figures/m1670sv</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Oliver_Bohovic_Music</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Comment 1 |-- I made this</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha692v/fimo_polymer_clay_pokémon_figures/m16737g</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BCoinsSRivers</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Post 10|-- GEN 1 SPRITES as ART (part 25) [OC]:
+Just some lil trainers. I guess “training” Pokemon was much more literal back then. it’s not cool to whip your pets, kids!</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/g999ox92wt5e1.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FehPrime</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post 12|-- I tried designing myself as a Pokémon Trainer with my favorite Pokémon.:
+</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/9x6sxuxplt5e1.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AutoModerator</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Comment 3 |-- Thank you for posting to r/pokemon! It looks like this post has not been claimed as Original Content (OC).  - If this is **your own work**, please reply to this comment with `[OC]` or `I made this`. You can also toggle the `oc` flag on your post.  A reminder that \/r/pokemon requires all creative work to be OC, in order to protect creators. If this is ***not*** **your own work**, please delete your post per [Rule 5](/r/pokemon/wiki/rules#wiki_5._original_content_.28oc.29_only). Thank you!  ***  *I am a bot, and may not detect all forms of OC claims. If you've already made it clear that this is your work, please ignore this comment.*  *I am a bot, and this action was performed automatically. Please [contact the moderators of this subreddit](/message/compose/?to=/r/pokemon) if you have any questions or concerns.*</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha94xv/i_tried_designing_myself_as_a_pokémon_trainer/m16qjru</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>good4health</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post 13|-- I’m a tattoo artist in Arkansas, and some of my fav projects are pokemon! [OC]:
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/gallery/1ha9mg1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hellslayer-Ascended</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post 18|-- Gigantimax Charizard:
+Art by yours truly 🤘also made a card for funsies </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/gallery/1ha7qo0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AutoModerator</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Comment 5 |-- Thank you for posting to r/pokemon! It looks like this post has not been claimed as Original Content (OC).  - If this is **your own work**, please reply to this comment with `[OC]` or `I made this`. You can also toggle the `oc` flag on your post.  A reminder that \/r/pokemon requires all creative work to be OC, in order to protect creators. If this is ***not*** **your own work**, please delete your post per [Rule 5](/r/pokemon/wiki/rules#wiki_5._original_content_.28oc.29_only). Thank you!  ***  *I am a bot, and may not detect all forms of OC claims. If you've already made it clear that this is your work, please ignore this comment.*  *I am a bot, and this action was performed automatically. Please [contact the moderators of this subreddit](/message/compose/?to=/r/pokemon) if you have any questions or concerns.*</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha7qo0/gigantimax_charizard/m16gva0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mr_Yeet123</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Post 19|-- Is there a lore reason why Jirachi doesn't fall asleep for a century after being captured?:
+It's stated and shown multiple times that after a Jirachi is awake for a week it falls asleep into a century long sleep and only wakes up after that much time has passed or is sung to.  But then the cycle repeats.  Except for when it's been captured by a trainer.  So ignoring gameplay what in-universe reason could there be for it to stay awake?</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1h9r8sx/is_there_a_lore_reason_why_jirachi_doesnt_fall/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Nvenom8</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Comment 21 |-- Time in pokeballs is parabolic. Pokemon imprisoned in them experience millennia in the space of hours, only experiencing freedom for fleetingly small windows of time from their perspective. While at first they view their trainers as the monsters who have condemned them to this fate, eventually Stockholm syndrome kicks in, and they come to see their trainers as saviors who offer them the only respite from a life of eternal nothingness.</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1h9r8sx/is_there_a_lore_reason_why_jirachi_doesnt_fall/m14lsql</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Aleks10Afc</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Post 20|-- Legends Arceus has reignited my love for the games:
+If you are on the fence like I was because the graphics and world building looked bad and empty then try to give it a go.  There is a certain care and love put in to this game that I can’t remember seeing since Sun and Moon. The personality of each Pokémon, the care put into designing models for each individual ‘Mon, the side quests that show a deeper aspect of story writing.  I’m a 32 year old man, but being able to throw your 6 Pokémon out of their ball and watch them interact up close does something to me. It’s the evolution of seeing those 2D sprites in Pokémon Blue to walking around 25 years later admiring the models of each one in real time.   The landscapes are not great and can sometimes be immersion breaking when flying around, but if you manage to look past that then this is a fantastic game. Hopefully Z-A takes all of the great aspects and improves on them.</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha6if6/legends_arceus_has_reignited_my_love_for_the_games/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>yourigo24</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Comment 8 |-- I really wanted to like the game, but it's just not for me. I'm a serial pokemon player. I've beaten every game several times and most spin offs too, mainly pmd and conquest. Legends Arceus is the one game I have to force myself to play.  It's just so boring. Catch the same pokemon over and over again. Use the same move over and over. Wait around for hours for distortions for rare items and pokes. Levels don't really matter, so if you want your pokemon to get stronger you have to catch a bucket load of other pokes, just to release them for grit. Side quests are mostly uninteresting fetch quests. There's nothing in the game that makes me want to play more of it.  And some may say, "oh, but the story is amazing, the graphics, the movement..". It's not. It's the best pokemon as made so far, but it's still way off what other games have to offer. And still no skip button. Do something else while pressing A as usual.  Maybe it's just because I've "mastered" how to play the other games without grinding (quick tip, anything up to gen 4 use a team of only 4 pokemon and you'll always be close to the champion level by the end), but the enormous amount of grinding that is required to do anything in this game really puts me off.</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha6if6/legends_arceus_has_reignited_my_love_for_the_games/m16ke0k</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Aleks10Afc</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Comment 1 |-- I’m in a similar boat. Played since gen1, have completed Living Dex up to Sun and Moon, only play Hardcore Nuzlocke.   For some reason this game just has a bit of magic to it.   I completely get your points but I find myself just enjoying it way more than I though for some reason</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha6if6/legends_arceus_has_reignited_my_love_for_the_games/m16ndoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ChronaMewX</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Comment 2 |-- The grind is the fun part though, that's what gameplay is. I always wanna max out my team, what's the point of playing if you're gonna bumrush it?</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha6if6/legends_arceus_has_reignited_my_love_for_the_games/m16u4sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Katsu_Drawn_21</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Post 21|-- In your opinion, what's the worst area in any game?:
+For me, it's Casseroya Lake.  I can forgive Lagtree- I mean, Tagtree Thicket since it's not totally chaotic. Just Laggy.  However, the Lake is so laggy, and idk why since there isn't so much happening in the area to warrant the lag. Unfortunately the lag isn't even the worst part, just part of it.  It's also a home to Valuza. So whenever your swimming to work on dex or shiny hunting, not only do you need to deal with the Lag, but there is also a high chance of dealing with at least 1 Valuza Hunting you down at almost all times and they are fast. It's a disaster the more there are and it goes from annoying dealing with one or the other, to now your dealing with a a terrible combo and is just a unpleasant place to be.</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha2abd/in_your_opinion_whats_the_worst_area_in_any_game/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CaptainPrower</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Comment 40 |-- POKEMON. WORLD. TOURNAMENT.</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha2abd/in_your_opinion_whats_the_worst_area_in_any_game/m15jf2n</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MiDankie</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Post 23|-- Sylveon and Eevee Shadow Box:
+ - Designed in Adobe Illustrator - Cut on a Cricut Maker - 65lbs Cardstock and Ink Stamping - 45 Layers in total (some of those are made up of sublayers) - 16 hours from start to finish (compressed into a 2min timelaps)  - Size 8" x 10"</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/gallery/1ha9h79</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AutoModerator</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Comment 1 |-- Thank you for posting to r/pokemon! It looks like this post has not been claimed as Original Content (OC).  - If this is **your own work**, please reply to this comment with `[OC]` or `I made this`. You can also toggle the `oc` flag on your post.  A reminder that \/r/pokemon requires all creative work to be OC, in order to protect creators. If this is ***not*** **your own work**, please delete your post per [Rule 5](/r/pokemon/wiki/rules#wiki_5._original_content_.28oc.29_only). Thank you!  ***  *I am a bot, and may not detect all forms of OC claims. If you've already made it clear that this is your work, please ignore this comment.*  *I am a bot, and this action was performed automatically. Please [contact the moderators of this subreddit](/message/compose/?to=/r/pokemon) if you have any questions or concerns.*</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha9h79/sylveon_and_eevee_shadow_box/m16sy6d</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MiDankie</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Comment 1 |-- [OC]</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha9h79/sylveon_and_eevee_shadow_box/m16tbk6</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MadMAXX998</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post 24|-- "Realistic" Charmander I drew for my Pokemon documentary:
+</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/jpj348gzau5e1.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MadMAXX998</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Comment 2 |-- Created this artwork as a thumbnail for my "animation" documentary channel around Pokemon. Was quite excited about it lol     If you're interested here's the video: [https://youtu.be/FkJNFn1cR3o](https://youtu.be/FkJNFn1cR3o)</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1hac0mf/realistic_charmander_i_drew_for_my_pokemon/m17cdkz</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RynnHamHam</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Post 25|-- Appreciation: I love how recent gens have put some effort in differentiating the common staples:
+There’s a lot to criticize Gamefreak about, but a more recent trend I like is finding ways to make all the new staples (birds/bugs/rodents/etc) be more distinct. We look at previous gens before jumping to 3D and with some exceptions a lot of them really blend together. Butterfree, Beautifly, Mothim, and Vivillon are all kind of redundant Pokemon. I noticed with Scarlet/Violet they didn’t bother with a brand new butterfly and instead let Scatterbug have the spotlight for the first time in forever. And for new mons they mirrors gen 2 and had a pair of two stagers with Tarountula and Nymble. Gen 5 opted for a leaf bug and centipede instead. Gen7-8 had beetles instead of butterflies.   When it comes to the rodents, besides Linoone having belly drum sets, and Bibarel’s water typing making it the ultimate HM slave, Gen 6 made Diggersby part ground to make it unique. Gen 8 had Greedent be an absolute tank as opposed to the usual frail builds the rodents are known for. And Gen 9 gave Oinkologne a rename of Galarian Yamask’s signature ability which I’m sure gives it some niche in lower tier play.   The birds didn’t really get too distinct until Gen 6. Talonflame being part fire was super unique. Toucannon returned to being a normal/flying bird, but was slow and was somewhat of a counter attacker with Beak Blast as a signature move. Corviknight is part steel and is a tanky beast. Kilowattrel is part electric type.   Not a universally recognized category but the “pathetic fish” is kind of an on again off again staple. Although it’s a bit more up to interpretation. Magikarp, Feebas, and solo Wishiwashi definitely count. Tynamo might count as an electric one but it’s definitely stretching the definition. Finizen is a dolphin not a fish, but definitely falls under the 2 stage water type that becomes monstrous upon evolution/form change.   The “rocks with eyes” are also another on again/off again staple. Rolycoly gains the fire type upon evolution. Nacli is a pure rock type but differs from Rogenrola by its ability completely negating status effects and being defensive against ghost types.  What are some newer design appreciations you have with Pokemon?</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha7fgw/appreciation_i_love_how_recent_gens_have_put_some/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mightyena319</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Comment 3 |-- &gt;The birds didn’t really get too distinct until Gen 6  I will say that while they're broadly similar some of the birds have useful niches too. Staraptor is an excellent pokemon with intimidate and a great learnset, and Swellow with guts + facade,  on a Mon with high speed can be genuinely threatening</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha7fgw/appreciation_i_love_how_recent_gens_have_put_some/m16r5fu</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mix_Loves_Typhlosion</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Post 26|-- Hot-Take: Final Gym + Elite Four should have 6 Pokemon on their teams:
+I don’t understand why they make it so that the final Gym Leader doesn’t have 6 Pokemon. The Elite Four is even more dumb, they are literally the best trainers in the region (besides the champion), They shouldn’t have limited teams. I say that after the 8th Gym Leader every important battle should have a full team of six.</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1h9py4c/hottake_final_gym_elite_four_should_have_6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>backofthebill</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post 27|-- What was your biggest Pokemon fail/Mistake :
+Here's mine. So I was in the post game of Pearl when I decided to after Regigigas. I needed the other regigis so I went back into my copy of Ruby and a sheet of paper with braille decoded on it.   Anyway I got 2 of the regigis and after each one save the game. I was doing good until I got to the third one (regice). Where I accidently kill him and me not thinking, instead of resting I proceed to SAVE the game only realizing mid save what I have done.   TL;DR Saving is a good habit to get into but make sure you know what you're saving before you do or you'll end up like me and mis a legendary.  </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/6yqqo1xdjt5e1.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Disastrous-Ability30</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post 29|-- #005 Charmeleon - Kanto Pokédex :
+</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/w6svvsnuns5e1.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AutoModerator</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Comment 1 |-- Thank you for posting to r/pokemon! It looks like this post has not been claimed as Original Content (OC).  - If this is **your own work**, please reply to this comment with `[OC]` or `I made this`. You can also toggle the `oc` flag on your post.  A reminder that \/r/pokemon requires all creative work to be OC, in order to protect creators. If this is ***not*** **your own work**, please delete your post per [Rule 5](/r/pokemon/wiki/rules#wiki_5._original_content_.28oc.29_only). Thank you!  ***  *I am a bot, and may not detect all forms of OC claims. If you've already made it clear that this is your work, please ignore this comment.*  *I am a bot, and this action was performed automatically. Please [contact the moderators of this subreddit](/message/compose/?to=/r/pokemon) if you have any questions or concerns.*</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha69e3/005_charmeleon_kanto_pokédex/m16737e</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Disastrous-Ability30</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Comment 1 |-- [OC]</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/pokemon/comments/1ha69e3/005_charmeleon_kanto_pokédex/m16745i</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
